--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value804.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value804.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.889071235190382</v>
+        <v>1.198958039283752</v>
       </c>
       <c r="B1">
-        <v>3.057557719999921</v>
+        <v>1.704150795936584</v>
       </c>
       <c r="C1">
-        <v>2.351408264783877</v>
+        <v>4.635594367980957</v>
       </c>
       <c r="D1">
-        <v>2.199218415544297</v>
+        <v>0.71562659740448</v>
       </c>
       <c r="E1">
-        <v>1.914360711646424</v>
+        <v>0.7683822512626648</v>
       </c>
     </row>
   </sheetData>
